--- a/data/extracted_data/raw_round2/data/Lin_etal_2024_Fig2.xlsx
+++ b/data/extracted_data/raw_round2/data/Lin_etal_2024_Fig2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{95BDCA14-C9C0-0D41-A864-79DAB69301FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC2067A-5FD4-C342-970E-70F6F222FC41}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{95BDCA14-C9C0-0D41-A864-79DAB69301FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57211319-F7A5-B946-9968-FCB0AB7BC78C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{5671DF37-5E44-3C43-86DF-0A3CD080526D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{5671DF37-5E44-3C43-86DF-0A3CD080526D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,10 +122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3819BD29-97DD-0A4F-B905-475583A3FD0C}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1">
         <v>7.9555896104708399</v>
@@ -806,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
         <v>11.935636210104899</v>
@@ -820,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>23.931695569907198</v>
@@ -848,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>0.92503113325030695</v>
@@ -862,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>1.9270236612702401</v>
@@ -876,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>2.9084682440846801</v>
@@ -890,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
         <v>3.9519302615192999</v>
@@ -974,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
         <v>0.92675654653875805</v>
@@ -988,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
         <v>1.9484054964998601</v>
@@ -1002,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <v>2.8942183043816399</v>
@@ -1016,7 +1012,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <v>3.9271454498314702</v>
@@ -1030,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
         <v>5.9782214156079796</v>
@@ -1044,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1">
         <v>7.9437386569872901</v>
